--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/52.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/52.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1026697923774349</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.514083898781082</v>
+        <v>-1.508454330934697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2228628425582795</v>
+        <v>0.1643647405306965</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1291247436695472</v>
+        <v>0.1614322419168918</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1356177347159729</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.410464475008354</v>
+        <v>-1.437518726466868</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1938574548548488</v>
+        <v>0.162864945586573</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1052500086989212</v>
+        <v>0.1513051190001671</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1755797944513995</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.40630725567564</v>
+        <v>-1.486759452462769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1802476848738927</v>
+        <v>0.109017488719194</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1405418488175941</v>
+        <v>0.186195021392863</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2176915672105307</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.481189046922029</v>
+        <v>-1.564849426468853</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2042120781840006</v>
+        <v>0.1127752100086388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.100382231777795</v>
+        <v>0.1650454120059473</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2589148772204625</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.467613432498971</v>
+        <v>-1.519979392042529</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3140502531768514</v>
+        <v>0.203141057475631</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1153143097859409</v>
+        <v>0.2048268782261627</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2950963762096014</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.371760128703276</v>
+        <v>-1.372170605318727</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3722427849453836</v>
+        <v>0.2563609059666363</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03615880435757796</v>
+        <v>0.1072121235160197</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3232051397799566</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.08595434918252</v>
+        <v>-1.067011432804079</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4294289475972815</v>
+        <v>0.3276264775205864</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01672375799918565</v>
+        <v>0.06636756555623252</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3396722412622304</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5179919455499911</v>
+        <v>-0.5862780545980268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.383721492081782</v>
+        <v>0.2964631904628211</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01707202270560879</v>
+        <v>0.01410346276569144</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3405776086182924</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06680792828484462</v>
+        <v>-0.02830798141266152</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3465767129471485</v>
+        <v>0.3385062425524182</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06142057495331358</v>
+        <v>-0.02475885299466457</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3181293692961437</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7933991114466851</v>
+        <v>0.5479292160413082</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1543187370639792</v>
+        <v>0.1539540044992839</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02347984933552389</v>
+        <v>-0.03032498909066734</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2644088073047332</v>
       </c>
       <c r="E12" t="n">
-        <v>1.539798078506595</v>
+        <v>1.241351083039559</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2352516273505706</v>
+        <v>-0.2214930367244879</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0716037345661146</v>
+        <v>0.03870339342097086</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1740242012757602</v>
       </c>
       <c r="E13" t="n">
-        <v>2.263193277322276</v>
+        <v>1.90120230606892</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6148528383036734</v>
+        <v>-0.5749438986620177</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1875783214877276</v>
+        <v>0.1401008761683052</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.04878645867474164</v>
       </c>
       <c r="E14" t="n">
-        <v>2.910957092379844</v>
+        <v>2.49445446064213</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.148103436381117</v>
+        <v>-1.118980333987074</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3485034523649957</v>
+        <v>0.2739046643126175</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1003419709528719</v>
       </c>
       <c r="E15" t="n">
-        <v>3.599706357073528</v>
+        <v>3.19568636190614</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.747516399710159</v>
+        <v>-1.728493583723064</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4763531948628933</v>
+        <v>0.3698647042267429</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2588404976981754</v>
       </c>
       <c r="E16" t="n">
-        <v>4.212598567358702</v>
+        <v>3.834803941450128</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.266647944041562</v>
+        <v>-2.323305305466719</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6675188028140069</v>
+        <v>0.5771163601064098</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4189523986500373</v>
       </c>
       <c r="E17" t="n">
-        <v>4.808663066172398</v>
+        <v>4.42177818249757</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.841599428708947</v>
+        <v>-2.962699179077273</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8666780311545805</v>
+        <v>0.7735205767501123</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5806839691272712</v>
       </c>
       <c r="E18" t="n">
-        <v>5.177948078798984</v>
+        <v>4.843368772520716</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.405914506694522</v>
+        <v>-3.575292528230841</v>
       </c>
       <c r="G18" t="n">
-        <v>1.055485685769386</v>
+        <v>0.9855704785937561</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7457637700864661</v>
       </c>
       <c r="E19" t="n">
-        <v>5.499438487354239</v>
+        <v>5.231939476946076</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.940656360826614</v>
+        <v>-4.152401912252561</v>
       </c>
       <c r="G19" t="n">
-        <v>1.303082374574583</v>
+        <v>1.239179765430336</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9141399711280002</v>
       </c>
       <c r="E20" t="n">
-        <v>5.856836145991005</v>
+        <v>5.630611687619737</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.468972090708489</v>
+        <v>-4.704144085407652</v>
       </c>
       <c r="G20" t="n">
-        <v>1.480345450619902</v>
+        <v>1.421366731099041</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.079155812889076</v>
       </c>
       <c r="E21" t="n">
-        <v>6.097857279980182</v>
+        <v>5.952714456534447</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.795731299029832</v>
+        <v>-5.072790511085683</v>
       </c>
       <c r="G21" t="n">
-        <v>1.609903580933371</v>
+        <v>1.572842360931452</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.231683024134192</v>
       </c>
       <c r="E22" t="n">
-        <v>6.250836364280777</v>
+        <v>6.163571353534372</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.068724474894141</v>
+        <v>-5.344328416215271</v>
       </c>
       <c r="G22" t="n">
-        <v>1.81220146107649</v>
+        <v>1.765908481711312</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.362740593536393</v>
       </c>
       <c r="E23" t="n">
-        <v>6.348648123369509</v>
+        <v>6.363047130706177</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.305783259206825</v>
+        <v>-5.533245094151046</v>
       </c>
       <c r="G23" t="n">
-        <v>1.925364923598971</v>
+        <v>1.893067184082454</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.466454626564915</v>
       </c>
       <c r="E24" t="n">
-        <v>6.461213863628777</v>
+        <v>6.549570632386561</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.418301730613645</v>
+        <v>-5.614539133952256</v>
       </c>
       <c r="G24" t="n">
-        <v>2.004184362734446</v>
+        <v>1.971217540235537</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.539804077168346</v>
       </c>
       <c r="E25" t="n">
-        <v>6.483478408012788</v>
+        <v>6.603253410671218</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.424507368539218</v>
+        <v>-5.627265433832943</v>
       </c>
       <c r="G25" t="n">
-        <v>2.063606494587302</v>
+        <v>2.024965580032605</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.580871377907707</v>
       </c>
       <c r="E26" t="n">
-        <v>6.539669180120233</v>
+        <v>6.634098319135721</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.417034010487024</v>
+        <v>-5.599979869957773</v>
       </c>
       <c r="G26" t="n">
-        <v>2.084529823403144</v>
+        <v>2.027013083744449</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.588730929095107</v>
       </c>
       <c r="E27" t="n">
-        <v>6.441582956726964</v>
+        <v>6.571933983920205</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.407973028913254</v>
+        <v>-5.604894915731347</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08887062885956</v>
+        <v>2.030909257027516</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.564246404450318</v>
       </c>
       <c r="E28" t="n">
-        <v>6.361687007597029</v>
+        <v>6.532600199476724</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.306806706102408</v>
+        <v>-5.488231880845855</v>
       </c>
       <c r="G28" t="n">
-        <v>2.056286226624972</v>
+        <v>1.994343902535793</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.508743579760856</v>
       </c>
       <c r="E29" t="n">
-        <v>6.280107677399269</v>
+        <v>6.445198566498727</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.148277953564083</v>
+        <v>-5.323529511217486</v>
       </c>
       <c r="G29" t="n">
-        <v>1.976895901736061</v>
+        <v>1.907848611683443</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.425185283104478</v>
       </c>
       <c r="E30" t="n">
-        <v>6.145421334035703</v>
+        <v>6.353527488783493</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.954215832319092</v>
+        <v>-5.156053222351267</v>
       </c>
       <c r="G30" t="n">
-        <v>1.934931529413764</v>
+        <v>1.886333049890479</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.31824811448301</v>
       </c>
       <c r="E31" t="n">
-        <v>5.994090255403681</v>
+        <v>6.268987603620799</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.815256994614906</v>
+        <v>-5.006745555564358</v>
       </c>
       <c r="G31" t="n">
-        <v>1.825179353236335</v>
+        <v>1.774479087060976</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.193966378462217</v>
       </c>
       <c r="E32" t="n">
-        <v>5.818286719537821</v>
+        <v>6.107940488608181</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.562516539782353</v>
+        <v>-4.782651245156631</v>
       </c>
       <c r="G32" t="n">
-        <v>1.767276533789258</v>
+        <v>1.735702770116041</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.059604835855422</v>
       </c>
       <c r="E33" t="n">
-        <v>5.559260727171042</v>
+        <v>5.858848884224274</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.407270685286625</v>
+        <v>-4.625688463955857</v>
       </c>
       <c r="G33" t="n">
-        <v>1.679759625803356</v>
+        <v>1.643366878863153</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9231529569484432</v>
       </c>
       <c r="E34" t="n">
-        <v>5.340273587550066</v>
+        <v>5.638829758818241</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.201574632093005</v>
+        <v>-4.418447481688033</v>
       </c>
       <c r="G34" t="n">
-        <v>1.536241021119801</v>
+        <v>1.505965168646704</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7908071741296838</v>
       </c>
       <c r="E35" t="n">
-        <v>5.087803022616975</v>
+        <v>5.413866616406486</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.061713416747569</v>
+        <v>-4.298862774280749</v>
       </c>
       <c r="G35" t="n">
-        <v>1.481897698742226</v>
+        <v>1.462164325166719</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6687620951939142</v>
       </c>
       <c r="E36" t="n">
-        <v>4.816662785768625</v>
+        <v>5.183505676005512</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.903632955906653</v>
+        <v>-4.091533048554458</v>
       </c>
       <c r="G36" t="n">
-        <v>1.442226018243825</v>
+        <v>1.424090026920721</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5607182289614274</v>
       </c>
       <c r="E37" t="n">
-        <v>4.497335155933119</v>
+        <v>4.861223590411838</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.774845460368256</v>
+        <v>-3.979180170611375</v>
       </c>
       <c r="G37" t="n">
-        <v>1.353058664906643</v>
+        <v>1.347032648620372</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4685632041495906</v>
       </c>
       <c r="E38" t="n">
-        <v>4.211853244291716</v>
+        <v>4.569031331484854</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.688275759193343</v>
+        <v>-3.900798654521805</v>
       </c>
       <c r="G38" t="n">
-        <v>1.258957053294568</v>
+        <v>1.267994247961944</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3919762288616011</v>
       </c>
       <c r="E39" t="n">
-        <v>3.9447543418475</v>
+        <v>4.299916031283308</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.653004046457003</v>
+        <v>-3.884361902204122</v>
       </c>
       <c r="G39" t="n">
-        <v>1.178687222789787</v>
+        <v>1.202686991499146</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.328629984076822</v>
       </c>
       <c r="E40" t="n">
-        <v>3.616699966969082</v>
+        <v>3.977082577397854</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.566260212928879</v>
+        <v>-3.78063818199567</v>
       </c>
       <c r="G40" t="n">
-        <v>1.096100913554716</v>
+        <v>1.113041460351393</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2750056684358105</v>
       </c>
       <c r="E41" t="n">
-        <v>3.407471558176075</v>
+        <v>3.765760920842247</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.484388730726957</v>
+        <v>-3.683896833694631</v>
       </c>
       <c r="G41" t="n">
-        <v>1.040664003403732</v>
+        <v>1.057481346223706</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2285354930241668</v>
       </c>
       <c r="E42" t="n">
-        <v>3.11593191437321</v>
+        <v>3.45689343061297</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.417239818780718</v>
+        <v>-3.665087184984059</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0189246007224</v>
+        <v>1.025801456352735</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1863023352603007</v>
       </c>
       <c r="E43" t="n">
-        <v>2.794794039969116</v>
+        <v>3.150697392947849</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.324872211652639</v>
+        <v>-3.57721133867989</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9342304056284884</v>
+        <v>0.9567486770140267</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1461270849623397</v>
       </c>
       <c r="E44" t="n">
-        <v>2.573745368460731</v>
+        <v>2.93388279077745</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.285314281360451</v>
+        <v>-3.514242518091744</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9217398400893649</v>
+        <v>0.935424630313561</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1064226539902754</v>
       </c>
       <c r="E45" t="n">
-        <v>2.31372764507356</v>
+        <v>2.662590073759914</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.192820725612624</v>
+        <v>-3.414726640632178</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8496947899105308</v>
+        <v>0.8557946065986881</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.0662675513890974</v>
       </c>
       <c r="E46" t="n">
-        <v>2.164048231634172</v>
+        <v>2.469714858151876</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.109868768931842</v>
+        <v>-3.350048212387107</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8118925162863629</v>
+        <v>0.837529312092114</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.02559486700775142</v>
       </c>
       <c r="E47" t="n">
-        <v>1.950155149505396</v>
+        <v>2.238676905799711</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.021032602522134</v>
+        <v>-3.253372735519156</v>
       </c>
       <c r="G47" t="n">
-        <v>0.73523524594996</v>
+        <v>0.7275362172473693</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.01522728990193614</v>
       </c>
       <c r="E48" t="n">
-        <v>1.815553585115897</v>
+        <v>2.078166520982632</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.972282252750339</v>
+        <v>-3.209751208718135</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6615580480401482</v>
+        <v>0.6496414178578446</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.05532708937361161</v>
       </c>
       <c r="E49" t="n">
-        <v>1.629002027084383</v>
+        <v>1.86413193725685</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.924433365738777</v>
+        <v>-3.140677997036756</v>
       </c>
       <c r="G49" t="n">
-        <v>0.577108431137612</v>
+        <v>0.5682743400555932</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.09433077403437862</v>
       </c>
       <c r="E50" t="n">
-        <v>1.533348777270662</v>
+        <v>1.731352205928798</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.836915847832198</v>
+        <v>-3.071835945291864</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5571646349286272</v>
+        <v>0.5031524994785262</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1321597741338988</v>
       </c>
       <c r="E51" t="n">
-        <v>1.433570023999416</v>
+        <v>1.58132208810028</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.776541629802938</v>
+        <v>-2.998072138645954</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4699679352980179</v>
+        <v>0.4344601832597762</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1687524401360477</v>
       </c>
       <c r="E52" t="n">
-        <v>1.373648367112303</v>
+        <v>1.493305045159445</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.682189950713397</v>
+        <v>-2.890091172113801</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3922585517942246</v>
+        <v>0.3555516957054962</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2042044122553203</v>
       </c>
       <c r="E53" t="n">
-        <v>1.310617944535806</v>
+        <v>1.372892675393813</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.645972860928098</v>
+        <v>-2.843764037190725</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3852963072691455</v>
+        <v>0.3487492503977251</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2388774209578541</v>
       </c>
       <c r="E54" t="n">
-        <v>1.217868527064082</v>
+        <v>1.225135122006858</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.594074710543605</v>
+        <v>-2.799202012706159</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3281077049345406</v>
+        <v>0.2852101539768195</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2733231572089877</v>
       </c>
       <c r="E55" t="n">
-        <v>1.17733441872876</v>
+        <v>1.145797250296148</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.569291803685302</v>
+        <v>-2.748471860417639</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2965003956241027</v>
+        <v>0.251577908019578</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3082869283138962</v>
       </c>
       <c r="E56" t="n">
-        <v>1.156384863323817</v>
+        <v>1.078676089740701</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.542317451835442</v>
+        <v>-2.710969057845754</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2619124039663971</v>
+        <v>0.2148222582767098</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3440445695845153</v>
       </c>
       <c r="E57" t="n">
-        <v>1.032936308429334</v>
+        <v>0.9303549696484312</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.514409311429481</v>
+        <v>-2.694604276167927</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2188373660917423</v>
+        <v>0.1666610918786529</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.380079396396421</v>
       </c>
       <c r="E58" t="n">
-        <v>1.027825173158185</v>
+        <v>0.8784757268049181</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.54202529983128</v>
+        <v>-2.70431543318311</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2047512480622459</v>
+        <v>0.1387785681411155</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.416138297405976</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9850160606985922</v>
+        <v>0.7865832478840256</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.477166335065891</v>
+        <v>-2.645511760896476</v>
       </c>
       <c r="G59" t="n">
-        <v>0.203310615423767</v>
+        <v>0.1279445471600397</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4518149599687966</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9677113912578963</v>
+        <v>0.704151248580172</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.496450807023311</v>
+        <v>-2.676334712216616</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1712415961610309</v>
+        <v>0.08147957016401916</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4872207299989134</v>
       </c>
       <c r="E61" t="n">
-        <v>1.047532320144591</v>
+        <v>0.7061767951476523</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.517461354495928</v>
+        <v>-2.676514638816256</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1863901960094224</v>
+        <v>0.07470640104873197</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5225578772047436</v>
       </c>
       <c r="E62" t="n">
-        <v>1.050728304490751</v>
+        <v>0.6393563254858421</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.505958860453136</v>
+        <v>-2.662527327936393</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1470320147388702</v>
+        <v>0.03414667604498612</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5576981768037168</v>
       </c>
       <c r="E63" t="n">
-        <v>1.093896050308272</v>
+        <v>0.6186117034282871</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.516257981000704</v>
+        <v>-2.65903004277592</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1176124908959276</v>
+        <v>0.001910538516821015</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5923193814091785</v>
       </c>
       <c r="E64" t="n">
-        <v>1.153643879802511</v>
+        <v>0.5893007454658057</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.581983643047752</v>
+        <v>-2.744832463739483</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1465940916929651</v>
+        <v>0.03298111763172058</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6259959569960396</v>
       </c>
       <c r="E65" t="n">
-        <v>1.182702330604819</v>
+        <v>0.5695149187120987</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.71675232570268</v>
+        <v>-2.849970589997314</v>
       </c>
       <c r="G65" t="n">
-        <v>0.09951065513072199</v>
+        <v>-0.03404916474289098</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6574983552555791</v>
       </c>
       <c r="E66" t="n">
-        <v>1.208113455760174</v>
+        <v>0.5382107399780046</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.789665293004526</v>
+        <v>-2.902945860296943</v>
       </c>
       <c r="G66" t="n">
-        <v>0.09797548478734713</v>
+        <v>-0.05475902132187129</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6862839761268096</v>
       </c>
       <c r="E67" t="n">
-        <v>1.232628607441385</v>
+        <v>0.4783146997593151</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.830428731514306</v>
+        <v>-2.905354437049421</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05766277765768425</v>
+        <v>-0.1067218232980988</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7114323533974953</v>
       </c>
       <c r="E68" t="n">
-        <v>1.258573413188894</v>
+        <v>0.468904843558446</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.919976065433102</v>
+        <v>-2.978854148042299</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01207791619821114</v>
+        <v>-0.1712306935950339</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7322818391831758</v>
       </c>
       <c r="E69" t="n">
-        <v>1.242566654948318</v>
+        <v>0.4194518651670368</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.952217082326681</v>
+        <v>-2.998353312077934</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03513474754131798</v>
+        <v>-0.1470985720988203</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7481529426868485</v>
       </c>
       <c r="E70" t="n">
-        <v>1.240205652008626</v>
+        <v>0.3853914548947182</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.008677439373249</v>
+        <v>-3.064177781274615</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03717920164977746</v>
+        <v>-0.1691587930561208</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7580884939855348</v>
       </c>
       <c r="E71" t="n">
-        <v>1.227681540832281</v>
+        <v>0.3551875730614776</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.071591672060826</v>
+        <v>-3.091195437492524</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02720211921953273</v>
+        <v>-0.1960184798187518</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7613864163274936</v>
       </c>
       <c r="E72" t="n">
-        <v>1.214954935991257</v>
+        <v>0.3039920512965992</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.140114125371102</v>
+        <v>-3.162001738776883</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.02681062615124503</v>
+        <v>-0.2649974587555733</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7578853567511575</v>
       </c>
       <c r="E73" t="n">
-        <v>1.246952594534813</v>
+        <v>0.3148138738641399</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.196500986976122</v>
+        <v>-3.206444523769145</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08902985422766792</v>
+        <v>-0.353525005302847</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7475467388053436</v>
       </c>
       <c r="E74" t="n">
-        <v>1.225660873630215</v>
+        <v>0.2642929243677448</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.241012388044518</v>
+        <v>-3.242136471851765</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1154662560406357</v>
+        <v>-0.3917566630834455</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7299668472731863</v>
       </c>
       <c r="E75" t="n">
-        <v>1.218490036233688</v>
+        <v>0.2749348203356449</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.24265307466497</v>
+        <v>-3.231711402684449</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1064443093901785</v>
+        <v>-0.3858916658558362</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7045082249358743</v>
       </c>
       <c r="E76" t="n">
-        <v>1.227175306670581</v>
+        <v>0.2891880566305703</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.294421311945315</v>
+        <v>-3.282218933925955</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1248541550971418</v>
+        <v>-0.4033225888766189</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6700092783200717</v>
       </c>
       <c r="E77" t="n">
-        <v>1.119946372332858</v>
+        <v>0.2420167914908755</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.321902507877553</v>
+        <v>-3.299320804741632</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1445978973241532</v>
+        <v>-0.4245594169203096</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6252903661972342</v>
       </c>
       <c r="E78" t="n">
-        <v>1.156779482001673</v>
+        <v>0.3050026898579707</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.300695870907361</v>
+        <v>-3.279939660356948</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1205956889320869</v>
+        <v>-0.4032286610923997</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5699482662535141</v>
       </c>
       <c r="E79" t="n">
-        <v>1.160845823153553</v>
+        <v>0.3460088767970961</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.261821051773131</v>
+        <v>-3.246522716398598</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.08169311840706553</v>
+        <v>-0.3596205525462671</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5041122204879059</v>
       </c>
       <c r="E80" t="n">
-        <v>1.203929399917682</v>
+        <v>0.4229467106448032</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.224017863267949</v>
+        <v>-3.203426331300257</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.09318463387767568</v>
+        <v>-0.366094250609271</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4288423671972006</v>
       </c>
       <c r="E81" t="n">
-        <v>1.341986164940958</v>
+        <v>0.5963087340416409</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.115682227862266</v>
+        <v>-3.095483179850063</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1175832907096283</v>
+        <v>-0.388373433089524</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3460994036939687</v>
       </c>
       <c r="E82" t="n">
-        <v>1.421336844985881</v>
+        <v>0.693864936366816</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.993255595061674</v>
+        <v>-2.969488816050833</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.08928358122919511</v>
+        <v>-0.3482699287519857</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2582630206589136</v>
       </c>
       <c r="E83" t="n">
-        <v>1.596984241158493</v>
+        <v>0.8834642680200405</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.852721332249447</v>
+        <v>-2.826407524492506</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.05141909569599893</v>
+        <v>-0.3195932882933223</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1678872514101785</v>
       </c>
       <c r="E84" t="n">
-        <v>1.815326694624147</v>
+        <v>1.166730947763495</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.76274644393625</v>
+        <v>-2.730735367137806</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.08698601003988518</v>
+        <v>-0.3517629444677218</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.07840878010896032</v>
       </c>
       <c r="E85" t="n">
-        <v>1.992019494836706</v>
+        <v>1.396940017915958</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.554349357025651</v>
+        <v>-2.527937352039753</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.04246485024066069</v>
+        <v>-0.3082432744197177</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.007083781562885617</v>
       </c>
       <c r="E86" t="n">
-        <v>2.172532228247738</v>
+        <v>1.659331552577033</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.362739726821865</v>
+        <v>-2.337540244141342</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.03852659243089848</v>
+        <v>-0.3233327119624646</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.08445868506701003</v>
       </c>
       <c r="E87" t="n">
-        <v>2.29759402333222</v>
+        <v>1.843374506865083</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.087871654797231</v>
+        <v>-2.087334314681016</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03033779742487905</v>
+        <v>-0.3088836911303031</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1505286557868299</v>
       </c>
       <c r="E88" t="n">
-        <v>2.413663147958729</v>
+        <v>2.059829865756878</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.782063526682523</v>
+        <v>-1.78162316395391</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.007656677218649021</v>
+        <v>-0.2737845859454827</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2018794383939662</v>
       </c>
       <c r="E89" t="n">
-        <v>2.46317772833849</v>
+        <v>2.153128211837675</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.580188931489067</v>
+        <v>-1.563648492656336</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.05224431837163905</v>
+        <v>-0.2840031969637196</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2355241226793558</v>
       </c>
       <c r="E90" t="n">
-        <v>2.54041320347645</v>
+        <v>2.296314409752402</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.362410044728728</v>
+        <v>-1.392652351564604</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06259711193876058</v>
+        <v>-0.2921663753013156</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2498889908319617</v>
       </c>
       <c r="E91" t="n">
-        <v>2.546923496780058</v>
+        <v>2.329162297719346</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.014973610584611</v>
+        <v>-1.094693902559643</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03463712827527611</v>
+        <v>-0.2458361907748564</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2441460204999959</v>
       </c>
       <c r="E92" t="n">
-        <v>2.474436864031259</v>
+        <v>2.254978865647833</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.827266252870659</v>
+        <v>-0.9342804951301663</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04356819674489792</v>
+        <v>-0.2395076538329185</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2193589933816562</v>
       </c>
       <c r="E93" t="n">
-        <v>2.403475032974329</v>
+        <v>2.195922686201026</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5520859014595307</v>
+        <v>-0.7231863389869867</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09931494659967043</v>
+        <v>-0.2374424624214496</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1789015200040724</v>
       </c>
       <c r="E94" t="n">
-        <v>2.337191293508058</v>
+        <v>2.12351229353682</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3001038829885148</v>
+        <v>-0.5036838163941584</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1224705850924104</v>
+        <v>-0.205827224142214</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1283685899408264</v>
       </c>
       <c r="E95" t="n">
-        <v>2.188595099190575</v>
+        <v>1.978424972872668</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09180621314822508</v>
+        <v>-0.3178031711070667</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1561894397857501</v>
+        <v>-0.2018621298226749</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.07522926144858431</v>
       </c>
       <c r="E96" t="n">
-        <v>2.033720381426647</v>
+        <v>1.832125739823819</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06504769721174973</v>
+        <v>-0.178807738162275</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1971986763282592</v>
+        <v>-0.2022018556396236</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.02768815883316229</v>
       </c>
       <c r="E97" t="n">
-        <v>1.872787321580581</v>
+        <v>1.693321821971526</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2089231054912026</v>
+        <v>-0.006704591042245303</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2029697457716494</v>
+        <v>-0.1922217236059951</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.00747008913393491</v>
       </c>
       <c r="E98" t="n">
-        <v>1.685710621846387</v>
+        <v>1.531890456932557</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3138062849061521</v>
+        <v>0.1034647708780796</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3156855265173975</v>
+        <v>-0.2529869007890506</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.028419112696093</v>
       </c>
       <c r="E99" t="n">
-        <v>1.543207535089617</v>
+        <v>1.429825111044183</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3840160837686514</v>
+        <v>0.2219333234469154</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3010937842468769</v>
+        <v>-0.2301203646970892</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.03606130615434297</v>
       </c>
       <c r="E100" t="n">
-        <v>1.382727646306375</v>
+        <v>1.285618515837256</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4228698606395329</v>
+        <v>0.2795171543800531</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3827633827047954</v>
+        <v>-0.283793994171595</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.03544310952286431</v>
       </c>
       <c r="E101" t="n">
-        <v>1.285369668201143</v>
+        <v>1.23364046584411</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4521051884380975</v>
+        <v>0.3504338513069033</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3862679869133897</v>
+        <v>-0.3020092751826758</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0335213730227913</v>
       </c>
       <c r="E102" t="n">
-        <v>1.117654290429639</v>
+        <v>1.122601966959419</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4339899344180035</v>
+        <v>0.3747544382922321</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4260708003572912</v>
+        <v>-0.3344296087552188</v>
       </c>
     </row>
   </sheetData>
